--- a/data_2023/SALMA.xlsx
+++ b/data_2023/SALMA.xlsx
@@ -8,35 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship_ISEM\Neotropical_Mammals\REPO\Neotropical_mammals\data_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F0079-01F8-4B11-B177-F48849C80EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63425AAE-D11C-4443-8851-7547A013B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{04C64777-6055-495D-8002-BBD1BCB13666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04C64777-6055-495D-8002-BBD1BCB13666}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Interval_name</t>
   </si>
@@ -65,12 +54,6 @@
     <t>Ensenadan</t>
   </si>
   <si>
-    <t>Martplatan</t>
-  </si>
-  <si>
-    <t>Chapadmalan</t>
-  </si>
-  <si>
     <t>Montehermosan</t>
   </si>
   <si>
@@ -89,18 +72,12 @@
     <t>Santacrucian</t>
   </si>
   <si>
-    <t>Colheuapian</t>
-  </si>
-  <si>
     <t>Oligocene</t>
   </si>
   <si>
     <t>Deseadan</t>
   </si>
   <si>
-    <t>Tinguirirician</t>
-  </si>
-  <si>
     <t>Eocene</t>
   </si>
   <si>
@@ -125,20 +102,53 @@
     <t>Paleocene</t>
   </si>
   <si>
-    <t>Carodnia Zone</t>
-  </si>
-  <si>
     <t>Peligran</t>
   </si>
   <si>
     <t>Tiupampan</t>
+  </si>
+  <si>
+    <t>Colhuehuapian</t>
+  </si>
+  <si>
+    <t>Marplatan</t>
+  </si>
+  <si>
+    <t>Tinguirirican</t>
+  </si>
+  <si>
+    <t>Chapadmalalan</t>
+  </si>
+  <si>
+    <t>Mayoan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carodnia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zone</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +159,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,9 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050431C4-1A0C-4966-AE29-90D56A8311BE}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,314 +547,329 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.3330000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="2">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>5.3330000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>5.3330000000000002</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C10" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>23.03</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C16" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="C18" s="2">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>23.03</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C19" s="2">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
-        <v>39.5</v>
-      </c>
-      <c r="D16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C21" s="2">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2">
+        <v>59.2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C23" s="2">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>59.2</v>
-      </c>
-      <c r="D21">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>62</v>
-      </c>
-      <c r="D22">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
+      <c r="C24" s="2">
         <v>64</v>
       </c>
-      <c r="D23">
+      <c r="D24" s="2">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_2023/SALMA.xlsx
+++ b/data_2023/SALMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship_ISEM\Neotropical_Mammals\REPO\Neotropical_mammals\data_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63425AAE-D11C-4443-8851-7547A013B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A93A10C-300C-45A1-939D-4F2CB0009865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04C64777-6055-495D-8002-BBD1BCB13666}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{04C64777-6055-495D-8002-BBD1BCB13666}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
-    <t>Interval_name</t>
-  </si>
-  <si>
     <t>min_ma</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
   </si>
   <si>
     <t>Lujanian</t>
-  </si>
-  <si>
-    <t>Epoch</t>
   </si>
   <si>
     <t>Pleistocene</t>
@@ -142,6 +136,12 @@
       </rPr>
       <t xml:space="preserve"> Zone</t>
     </r>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>interval_name</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,24 +534,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>5.3330000000000002</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>8</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>11.5</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>16</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>23.03</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>30</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>36</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>39.5</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>44</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>47</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
         <v>50</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>51</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <v>59.2</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
         <v>62</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>64</v>
